--- a/registroPonto.xlsx
+++ b/registroPonto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICROSOFT\Desktop\Projetos\ZP 2023\Controle de ponto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BA5BC9-A033-44A8-A345-BD99379DAA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37ADB3-17F4-49DD-A1F1-194E36EECF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>codigo</t>
   </si>
@@ -36,21 +36,6 @@
   <si>
     <t>hora_saida</t>
   </si>
-  <si>
-    <t>João da Silva</t>
-  </si>
-  <si>
-    <t>Maria Oliveira</t>
-  </si>
-  <si>
-    <t>Pedro Santos</t>
-  </si>
-  <si>
-    <t>Ana Rodrigues</t>
-  </si>
-  <si>
-    <t>Luís Ferreira</t>
-  </si>
 </sst>
 </file>
 
@@ -59,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +56,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,12 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,15 +410,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,188 +438,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45200.639849537038</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45200.641412037039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45200.640243055554</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45200.641527777778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45200.640370370369</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45200.641597222217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45200.640474537038</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45200.641655092593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45200.640532407408</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45200.641712962963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45200.647418981483</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45200.647777777784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45200.651828703703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1004</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45200.669803240737</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45200.669988425929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1004</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45200.669918981483</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45200.669988425929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45200.672812500001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1002</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45200.67292824074</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45200.673032407409</v>
-      </c>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>